--- a/results-data/analysis/random/analysis - random_medium.xlsx
+++ b/results-data/analysis/random/analysis - random_medium.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\Master\Advanced algorithms\moha\knapsackProblem\results-data\random\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\Master\Advanced algorithms\moha\knapsackProblem\results-data\analysis\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAAA536-E0AD-4D34-9D39-A373037EE404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC28C03-BF2B-4A03-8583-2A29942C4FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="random - medium" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'random - medium'!$A$27:$L$297</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -12966,10 +12969,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:K275"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A268" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I280" sqref="I280"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J292" sqref="J292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14353,8 +14359,8 @@
     <mergeCell ref="I271:K271"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="20">
     <tablePart r:id="rId3"/>
